--- a/01_doc/回测示例.xlsx
+++ b/01_doc/回测示例.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\21221\申万宏源证券实习\Backtest_Simulation_of_Dynamic_Hedge\Backtest_Simulation_of_Dynamic_Hedge\01_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D702D0C9-F480-45FA-B2CD-8DEFEBB2177D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0101AD-E2BF-4835-AD2F-D881E9639E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="20186" windowHeight="12920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="20186" windowHeight="12920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -461,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
@@ -4337,8 +4337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3BD138-1FAC-4F8C-A299-7E25B205197B}">
   <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
@@ -4422,7 +4422,7 @@
         <f>A7*Sheet1!A7*greek!$B$1</f>
         <v>7123138.2059800671</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="2">
         <f>B7*Sheet1!A7^2*0.01*greek!$B$1</f>
         <v>188560.90301661132</v>
       </c>
@@ -4461,7 +4461,7 @@
         <f>A8*Sheet1!A8*greek!$B$1</f>
         <v>8116744.1860465128</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="2">
         <f>B8*Sheet1!A8^2*0.01*greek!$B$1</f>
         <v>181856.74939534883</v>
       </c>
@@ -4501,7 +4501,7 @@
         <f>A9*Sheet1!A9*greek!$B$1</f>
         <v>9867306.9767441861</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="2">
         <f>B9*Sheet1!A9^2*0.01*greek!$B$1</f>
         <v>157314.80930232559</v>
       </c>
@@ -4541,7 +4541,7 @@
         <f>A10*Sheet1!A10*greek!$B$1</f>
         <v>10549109.302325582</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="2">
         <f>B10*Sheet1!A10^2*0.01*greek!$B$1</f>
         <v>146810.76570099668</v>
       </c>
@@ -4581,7 +4581,7 @@
         <f>A11*Sheet1!A11*greek!$B$1</f>
         <v>12231815.282392029</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="2">
         <f>B11*Sheet1!A11^2*0.01*greek!$B$1</f>
         <v>114231.40066445184</v>
       </c>
@@ -4621,7 +4621,7 @@
         <f>A12*Sheet1!A12*greek!$B$1</f>
         <v>12777166.046511631</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="2">
         <f>B12*Sheet1!A12^2*0.01*greek!$B$1</f>
         <v>103690.58651162793</v>
       </c>
@@ -4661,7 +4661,7 @@
         <f>A13*Sheet1!A13*greek!$B$1</f>
         <v>12891993.488372095</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="2">
         <f>B13*Sheet1!A13^2*0.01*greek!$B$1</f>
         <v>101498.52055813954</v>
       </c>
@@ -4701,7 +4701,7 @@
         <f>A14*Sheet1!A14*greek!$B$1</f>
         <v>11753155.016611295</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="2">
         <f>B14*Sheet1!A14^2*0.01*greek!$B$1</f>
         <v>123597.69906976745</v>
       </c>
@@ -4741,7 +4741,7 @@
         <f>A15*Sheet1!A15*greek!$B$1</f>
         <v>12149772.757475084</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="2">
         <f>B15*Sheet1!A15^2*0.01*greek!$B$1</f>
         <v>116273.27011295683</v>
       </c>
@@ -4781,7 +4781,7 @@
         <f>A16*Sheet1!A16*greek!$B$1</f>
         <v>9619221.5282392036</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="2">
         <f>B16*Sheet1!A16^2*0.01*greek!$B$1</f>
         <v>153563.24021262457</v>
       </c>
@@ -4821,7 +4821,7 @@
         <f>A17*Sheet1!A17*greek!$B$1</f>
         <v>9387786.9767441861</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="2">
         <f>B17*Sheet1!A17^2*0.01*greek!$B$1</f>
         <v>157057.10174750831</v>
       </c>
@@ -4861,7 +4861,7 @@
         <f>A18*Sheet1!A18*greek!$B$1</f>
         <v>8565028.7043189369</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="2">
         <f>B18*Sheet1!A18^2*0.01*greek!$B$1</f>
         <v>165514.05823255816</v>
       </c>
@@ -4901,7 +4901,7 @@
         <f>A19*Sheet1!A19*greek!$B$1</f>
         <v>8946085.7142857146</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="2">
         <f>B19*Sheet1!A19^2*0.01*greek!$B$1</f>
         <v>162764.69900332225</v>
       </c>
@@ -4941,7 +4941,7 @@
         <f>A20*Sheet1!A20*greek!$B$1</f>
         <v>10290820.465116281</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="2">
         <f>B20*Sheet1!A20^2*0.01*greek!$B$1</f>
         <v>145295.38604651164</v>
       </c>
@@ -4981,7 +4981,7 @@
         <f>A21*Sheet1!A21*greek!$B$1</f>
         <v>10538421.926910302</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="2">
         <f>B21*Sheet1!A21^2*0.01*greek!$B$1</f>
         <v>142499.00332225914</v>
       </c>
@@ -5021,7 +5021,7 @@
         <f>A22*Sheet1!A22*greek!$B$1</f>
         <v>12534140.332225915</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="2">
         <f>B22*Sheet1!A22^2*0.01*greek!$B$1</f>
         <v>107443.69020598009</v>
       </c>
@@ -5061,7 +5061,7 @@
         <f>A23*Sheet1!A23*greek!$B$1</f>
         <v>11202978.737541528</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="2">
         <f>B23*Sheet1!A23^2*0.01*greek!$B$1</f>
         <v>129560.59335548175</v>
       </c>
@@ -5101,7 +5101,7 @@
         <f>A24*Sheet1!A24*greek!$B$1</f>
         <v>11236500.996677741</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="2">
         <f>B24*Sheet1!A24^2*0.01*greek!$B$1</f>
         <v>130079.5873754153</v>
       </c>
@@ -5141,7 +5141,7 @@
         <f>A25*Sheet1!A25*greek!$B$1</f>
         <v>11274697.674418606</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="2">
         <f>B25*Sheet1!A25^2*0.01*greek!$B$1</f>
         <v>130625.42591362128</v>
       </c>
@@ -5181,7 +5181,7 @@
         <f>A26*Sheet1!A26*greek!$B$1</f>
         <v>9919340.7308970112</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="2">
         <f>B26*Sheet1!A26^2*0.01*greek!$B$1</f>
         <v>151979.43005980065</v>
       </c>
@@ -5221,7 +5221,7 @@
         <f>A27*Sheet1!A27*greek!$B$1</f>
         <v>10476028.704318939</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="2">
         <f>B27*Sheet1!A27^2*0.01*greek!$B$1</f>
         <v>144494.40701661134</v>
       </c>
@@ -5261,7 +5261,7 @@
         <f>A28*Sheet1!A28*greek!$B$1</f>
         <v>11374928.372093024</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="2">
         <f>B28*Sheet1!A28^2*0.01*greek!$B$1</f>
         <v>129840.1518139535</v>
       </c>
@@ -5301,7 +5301,7 @@
         <f>A29*Sheet1!A29*greek!$B$1</f>
         <v>10950123.588039868</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="2">
         <f>B29*Sheet1!A29^2*0.01*greek!$B$1</f>
         <v>137721.95880398669</v>
       </c>
@@ -5341,7 +5341,7 @@
         <f>A30*Sheet1!A30*greek!$B$1</f>
         <v>9741559.1362126265</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="2">
         <f>B30*Sheet1!A30^2*0.01*greek!$B$1</f>
         <v>156058.68653820601</v>
       </c>
@@ -5381,7 +5381,7 @@
         <f>A31*Sheet1!A31*greek!$B$1</f>
         <v>9677838.7375415284</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="2">
         <f>B31*Sheet1!A31^2*0.01*greek!$B$1</f>
         <v>158092.71320930231</v>
       </c>
@@ -5421,7 +5421,7 @@
         <f>A32*Sheet1!A32*greek!$B$1</f>
         <v>10108237.674418606</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="2">
         <f>B32*Sheet1!A32^2*0.01*greek!$B$1</f>
         <v>153558.62720930233</v>
       </c>
@@ -5461,7 +5461,7 @@
         <f>A33*Sheet1!A33*greek!$B$1</f>
         <v>10089326.511627909</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33" s="2">
         <f>B33*Sheet1!A33^2*0.01*greek!$B$1</f>
         <v>155044.2574883721</v>
       </c>
@@ -5501,7 +5501,7 @@
         <f>A34*Sheet1!A34*greek!$B$1</f>
         <v>11628925.714285716</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="2">
         <f>B34*Sheet1!A34^2*0.01*greek!$B$1</f>
         <v>127330.1914883721</v>
       </c>
@@ -5541,7 +5541,7 @@
         <f>A35*Sheet1!A35*greek!$B$1</f>
         <v>12173636.411960134</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35" s="2">
         <f>B35*Sheet1!A35^2*0.01*greek!$B$1</f>
         <v>116970.08882392028</v>
       </c>
@@ -5581,7 +5581,7 @@
         <f>A36*Sheet1!A36*greek!$B$1</f>
         <v>11511251.362126246</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G36" s="2">
         <f>B36*Sheet1!A36^2*0.01*greek!$B$1</f>
         <v>130326.1816943522</v>
       </c>
@@ -5621,7 +5621,7 @@
         <f>A37*Sheet1!A37*greek!$B$1</f>
         <v>12199845.049833888</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G37" s="2">
         <f>B37*Sheet1!A37^2*0.01*greek!$B$1</f>
         <v>116884.17966777411</v>
       </c>
@@ -5661,7 +5661,7 @@
         <f>A38*Sheet1!A38*greek!$B$1</f>
         <v>12852848.571428573</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G38" s="2">
         <f>B38*Sheet1!A38^2*0.01*greek!$B$1</f>
         <v>103327.8206112957</v>
       </c>
@@ -5701,7 +5701,7 @@
         <f>A39*Sheet1!A39*greek!$B$1</f>
         <v>12678335.880398672</v>
       </c>
-      <c r="G39" s="1">
+      <c r="G39" s="2">
         <f>B39*Sheet1!A39^2*0.01*greek!$B$1</f>
         <v>107218.69534883722</v>
       </c>
@@ -5741,7 +5741,7 @@
         <f>A40*Sheet1!A40*greek!$B$1</f>
         <v>14887669.235880401</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G40" s="2">
         <f>B40*Sheet1!A40^2*0.01*greek!$B$1</f>
         <v>62814.282498338893</v>
       </c>
@@ -5781,7 +5781,7 @@
         <f>A41*Sheet1!A41*greek!$B$1</f>
         <v>14219685.049833888</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G41" s="2">
         <f>B41*Sheet1!A41^2*0.01*greek!$B$1</f>
         <v>74163.850664451835</v>
       </c>
@@ -5821,7 +5821,7 @@
         <f>A42*Sheet1!A42*greek!$B$1</f>
         <v>14828354.551495017</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G42" s="2">
         <f>B42*Sheet1!A42^2*0.01*greek!$B$1</f>
         <v>61265.906392026583</v>
       </c>
@@ -5861,7 +5861,7 @@
         <f>A43*Sheet1!A43*greek!$B$1</f>
         <v>14901930.897009969</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G43" s="2">
         <f>B43*Sheet1!A43^2*0.01*greek!$B$1</f>
         <v>59241.417408637884</v>
       </c>
@@ -5901,7 +5901,7 @@
         <f>A44*Sheet1!A44*greek!$B$1</f>
         <v>14165307.109634552</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G44" s="2">
         <f>B44*Sheet1!A44^2*0.01*greek!$B$1</f>
         <v>74290.736372093015</v>
       </c>
@@ -5941,7 +5941,7 @@
         <f>A45*Sheet1!A45*greek!$B$1</f>
         <v>14419991.362126246</v>
       </c>
-      <c r="G45" s="1">
+      <c r="G45" s="2">
         <f>B45*Sheet1!A45^2*0.01*greek!$B$1</f>
         <v>68199.56928239204</v>
       </c>
@@ -5981,7 +5981,7 @@
         <f>A46*Sheet1!A46*greek!$B$1</f>
         <v>13612774.285714287</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G46" s="2">
         <f>B46*Sheet1!A46^2*0.01*greek!$B$1</f>
         <v>86161.716857142863</v>
       </c>
@@ -6021,7 +6021,7 @@
         <f>A47*Sheet1!A47*greek!$B$1</f>
         <v>13705979.800664453</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G47" s="2">
         <f>B47*Sheet1!A47^2*0.01*greek!$B$1</f>
         <v>83624.302564784055</v>
       </c>
@@ -6061,7 +6061,7 @@
         <f>A48*Sheet1!A48*greek!$B$1</f>
         <v>13645518.936877077</v>
       </c>
-      <c r="G48" s="1">
+      <c r="G48" s="2">
         <f>B48*Sheet1!A48^2*0.01*greek!$B$1</f>
         <v>84683.298338870431</v>
       </c>
@@ -6101,7 +6101,7 @@
         <f>A49*Sheet1!A49*greek!$B$1</f>
         <v>13297980.199335549</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G49" s="2">
         <f>B49*Sheet1!A49^2*0.01*greek!$B$1</f>
         <v>92989.568292358817</v>
       </c>
@@ -6141,7 +6141,7 @@
         <f>A50*Sheet1!A50*greek!$B$1</f>
         <v>13692374.750830567</v>
       </c>
-      <c r="G50" s="1">
+      <c r="G50" s="2">
         <f>B50*Sheet1!A50^2*0.01*greek!$B$1</f>
         <v>82930.570764119606</v>
       </c>
@@ -6181,7 +6181,7 @@
         <f>A51*Sheet1!A51*greek!$B$1</f>
         <v>13718567.441860467</v>
       </c>
-      <c r="G51" s="1">
+      <c r="G51" s="2">
         <f>B51*Sheet1!A51^2*0.01*greek!$B$1</f>
         <v>81878.934219269097</v>
       </c>
@@ -6221,7 +6221,7 @@
         <f>A52*Sheet1!A52*greek!$B$1</f>
         <v>14122973.621262461</v>
       </c>
-      <c r="G52" s="1">
+      <c r="G52" s="2">
         <f>B52*Sheet1!A52^2*0.01*greek!$B$1</f>
         <v>71340.870438538215</v>
       </c>
@@ -6261,7 +6261,7 @@
         <f>A53*Sheet1!A53*greek!$B$1</f>
         <v>14035304.053156145</v>
       </c>
-      <c r="G53" s="1">
+      <c r="G53" s="2">
         <f>B53*Sheet1!A53^2*0.01*greek!$B$1</f>
         <v>72871.77356810632</v>
       </c>
@@ -6301,7 +6301,7 @@
         <f>A54*Sheet1!A54*greek!$B$1</f>
         <v>14425808.372093024</v>
       </c>
-      <c r="G54" s="1">
+      <c r="G54" s="2">
         <f>B54*Sheet1!A54^2*0.01*greek!$B$1</f>
         <v>62472.222617940199</v>
       </c>
@@ -6341,7 +6341,7 @@
         <f>A55*Sheet1!A55*greek!$B$1</f>
         <v>14198063.521594686</v>
       </c>
-      <c r="G55" s="1">
+      <c r="G55" s="2">
         <f>B55*Sheet1!A55^2*0.01*greek!$B$1</f>
         <v>67434.344292358801</v>
       </c>
@@ -6381,7 +6381,7 @@
         <f>A56*Sheet1!A56*greek!$B$1</f>
         <v>14392296.279069768</v>
       </c>
-      <c r="G56" s="1">
+      <c r="G56" s="2">
         <f>B56*Sheet1!A56^2*0.01*greek!$B$1</f>
         <v>61616.920465116295</v>
       </c>
@@ -6421,7 +6421,7 @@
         <f>A57*Sheet1!A57*greek!$B$1</f>
         <v>14554955.481727576</v>
       </c>
-      <c r="G57" s="1">
+      <c r="G57" s="2">
         <f>B57*Sheet1!A57^2*0.01*greek!$B$1</f>
         <v>56515.401169435223</v>
       </c>
@@ -6461,7 +6461,7 @@
         <f>A58*Sheet1!A58*greek!$B$1</f>
         <v>15018823.8538206</v>
       </c>
-      <c r="G58" s="1">
+      <c r="G58" s="2">
         <f>B58*Sheet1!A58^2*0.01*greek!$B$1</f>
         <v>44565.301016611294</v>
       </c>
@@ -6501,7 +6501,7 @@
         <f>A59*Sheet1!A59*greek!$B$1</f>
         <v>15188362.325581396</v>
       </c>
-      <c r="G59" s="1">
+      <c r="G59" s="2">
         <f>B59*Sheet1!A59^2*0.01*greek!$B$1</f>
         <v>39713.734883720936</v>
       </c>
@@ -6541,7 +6541,7 @@
         <f>A60*Sheet1!A60*greek!$B$1</f>
         <v>15708616.744186049</v>
       </c>
-      <c r="G60" s="1">
+      <c r="G60" s="2">
         <f>B60*Sheet1!A60^2*0.01*greek!$B$1</f>
         <v>28370.570232558141</v>
       </c>
@@ -6581,7 +6581,7 @@
         <f>A61*Sheet1!A61*greek!$B$1</f>
         <v>15537121.594684387</v>
       </c>
-      <c r="G61" s="1">
+      <c r="G61" s="2">
         <f>B61*Sheet1!A61^2*0.01*greek!$B$1</f>
         <v>30255.372757475092</v>
       </c>
@@ -6621,7 +6621,7 @@
         <f>A62*Sheet1!A62*greek!$B$1</f>
         <v>16337960.132890368</v>
       </c>
-      <c r="G62" s="1">
+      <c r="G62" s="2">
         <f>B62*Sheet1!A62^2*0.01*greek!$B$1</f>
         <v>17040.498338870431</v>
       </c>
@@ -6661,7 +6661,7 @@
         <f>A63*Sheet1!A63*greek!$B$1</f>
         <v>16348813.953488374</v>
       </c>
-      <c r="G63" s="1">
+      <c r="G63" s="2">
         <f>B63*Sheet1!A63^2*0.01*greek!$B$1</f>
         <v>15765.174418604654</v>
       </c>
@@ -6701,7 +6701,7 @@
         <f>A64*Sheet1!A64*greek!$B$1</f>
         <v>16358845.514950169</v>
       </c>
-      <c r="G64" s="1">
+      <c r="G64" s="2">
         <f>B64*Sheet1!A64^2*0.01*greek!$B$1</f>
         <v>14544.119601328906</v>
       </c>
@@ -6741,7 +6741,7 @@
         <f>A65*Sheet1!A65*greek!$B$1</f>
         <v>16368383.720930235</v>
       </c>
-      <c r="G65" s="1">
+      <c r="G65" s="2">
         <f>B65*Sheet1!A65^2*0.01*greek!$B$1</f>
         <v>13336.632059800666</v>
       </c>
@@ -6781,7 +6781,7 @@
         <f>A66*Sheet1!A66*greek!$B$1</f>
         <v>16377428.571428575</v>
       </c>
-      <c r="G66" s="1">
+      <c r="G66" s="2">
         <f>B66*Sheet1!A66^2*0.01*greek!$B$1</f>
         <v>12129.144518272427</v>
       </c>
@@ -6821,7 +6821,7 @@
         <f>A67*Sheet1!A67*greek!$B$1</f>
         <v>16385980.066445185</v>
       </c>
-      <c r="G67" s="1">
+      <c r="G67" s="2">
         <f>B67*Sheet1!A67^2*0.01*greek!$B$1</f>
         <v>10935.224252491695</v>
       </c>
@@ -6861,7 +6861,7 @@
         <f>A68*Sheet1!A68*greek!$B$1</f>
         <v>16393873.754152823</v>
       </c>
-      <c r="G68" s="1">
+      <c r="G68" s="2">
         <f>B68*Sheet1!A68^2*0.01*greek!$B$1</f>
         <v>9795.573089700998</v>
       </c>
@@ -6901,7 +6901,7 @@
         <f>A69*Sheet1!A69*greek!$B$1</f>
         <v>16401274.086378738</v>
       </c>
-      <c r="G69" s="1">
+      <c r="G69" s="2">
         <f>B69*Sheet1!A69^2*0.01*greek!$B$1</f>
         <v>8683.0564784053167</v>
       </c>
@@ -6941,7 +6941,7 @@
         <f>A70*Sheet1!A70*greek!$B$1</f>
         <v>16419363.787375418</v>
       </c>
-      <c r="G70" s="1">
+      <c r="G70" s="2">
         <f>B70*Sheet1!A70^2*0.01*greek!$B$1</f>
         <v>5711.823089700998</v>
       </c>
@@ -6981,7 +6981,7 @@
         <f>A71*Sheet1!A71*greek!$B$1</f>
         <v>16424626.245847179</v>
       </c>
-      <c r="G71" s="1">
+      <c r="G71" s="2">
         <f>B71*Sheet1!A71^2*0.01*greek!$B$1</f>
         <v>4762.1137873754151</v>
       </c>
@@ -7021,7 +7021,7 @@
         <f>A72*Sheet1!A72*greek!$B$1</f>
         <v>16429888.704318939</v>
       </c>
-      <c r="G72" s="1">
+      <c r="G72" s="2">
         <f>B72*Sheet1!A72^2*0.01*greek!$B$1</f>
         <v>3717.4335548172762</v>
       </c>
@@ -7061,7 +7061,7 @@
         <f>A73*Sheet1!A73*greek!$B$1</f>
         <v>16433177.740863789</v>
       </c>
-      <c r="G73" s="1">
+      <c r="G73" s="2">
         <f>B73*Sheet1!A73^2*0.01*greek!$B$1</f>
         <v>3066.2043189368774</v>
       </c>
@@ -7101,7 +7101,7 @@
         <f>A74*Sheet1!A74*greek!$B$1</f>
         <v>16435973.421926914</v>
       </c>
-      <c r="G74" s="1">
+      <c r="G74" s="2">
         <f>B74*Sheet1!A74^2*0.01*greek!$B$1</f>
         <v>2455.6769102990033</v>
       </c>
@@ -7141,7 +7141,7 @@
         <f>A75*Sheet1!A75*greek!$B$1</f>
         <v>16438275.747508306</v>
       </c>
-      <c r="G75" s="1">
+      <c r="G75" s="2">
         <f>B75*Sheet1!A75^2*0.01*greek!$B$1</f>
         <v>1926.5531561461798</v>
       </c>
@@ -7181,7 +7181,7 @@
         <f>A76*Sheet1!A76*greek!$B$1</f>
         <v>16440578.073089704</v>
       </c>
-      <c r="G76" s="1">
+      <c r="G76" s="2">
         <f>B76*Sheet1!A76^2*0.01*greek!$B$1</f>
         <v>1356.7275747508309</v>
       </c>
@@ -7221,7 +7221,7 @@
         <f>A77*Sheet1!A77*greek!$B$1</f>
         <v>16442058.139534885</v>
       </c>
-      <c r="G77" s="1">
+      <c r="G77" s="2">
         <f>B77*Sheet1!A77^2*0.01*greek!$B$1</f>
         <v>990.4111295681065</v>
       </c>
@@ -7261,7 +7261,7 @@
         <f>A78*Sheet1!A78*greek!$B$1</f>
         <v>16443209.302325584</v>
       </c>
-      <c r="G78" s="1">
+      <c r="G78" s="2">
         <f>B78*Sheet1!A78^2*0.01*greek!$B$1</f>
         <v>651.22923588039873</v>
       </c>
@@ -7301,7 +7301,7 @@
         <f>A79*Sheet1!A79*greek!$B$1</f>
         <v>16444031.561461795</v>
       </c>
-      <c r="G79" s="1">
+      <c r="G79" s="2">
         <f>B79*Sheet1!A79^2*0.01*greek!$B$1</f>
         <v>434.15282392026586</v>
       </c>
@@ -7341,7 +7341,7 @@
         <f>A80*Sheet1!A80*greek!$B$1</f>
         <v>16444524.916943524</v>
       </c>
-      <c r="G80" s="1">
+      <c r="G80" s="2">
         <f>B80*Sheet1!A80^2*0.01*greek!$B$1</f>
         <v>230.64368770764125</v>
       </c>
@@ -7381,7 +7381,7 @@
         <f>A81*Sheet1!A81*greek!$B$1</f>
         <v>16444853.820598006</v>
       </c>
-      <c r="G81" s="1">
+      <c r="G81" s="2">
         <f>B81*Sheet1!A81^2*0.01*greek!$B$1</f>
         <v>135.67275747508307</v>
       </c>
@@ -7421,7 +7421,7 @@
         <f>A82*Sheet1!A82*greek!$B$1</f>
         <v>16445018.272425251</v>
       </c>
-      <c r="G82" s="1">
+      <c r="G82" s="2">
         <f>B82*Sheet1!A82^2*0.01*greek!$B$1</f>
         <v>67.836378737541537</v>
       </c>
@@ -7461,7 +7461,7 @@
         <f>A83*Sheet1!A83*greek!$B$1</f>
         <v>18099667.774086382</v>
       </c>
-      <c r="G83" s="1">
+      <c r="G83" s="2">
         <f>B83*Sheet1!A83^2*0.01*greek!$B$1</f>
         <v>0</v>
       </c>
@@ -7501,7 +7501,7 @@
         <f>A84*Sheet1!A84*greek!$B$1</f>
         <v>18099667.774086382</v>
       </c>
-      <c r="G84" s="1">
+      <c r="G84" s="2">
         <f>B84*Sheet1!A84^2*0.01*greek!$B$1</f>
         <v>0</v>
       </c>
@@ -7541,7 +7541,7 @@
         <f>A85*Sheet1!A85*greek!$B$1</f>
         <v>19853820.598006647</v>
       </c>
-      <c r="G85" s="1">
+      <c r="G85" s="2">
         <f>B85*Sheet1!A85^2*0.01*greek!$B$1</f>
         <v>0</v>
       </c>
@@ -7581,7 +7581,7 @@
         <f>A86*Sheet1!A86*greek!$B$1</f>
         <v>18598006.644518275</v>
       </c>
-      <c r="G86" s="1">
+      <c r="G86" s="2">
         <f>B86*Sheet1!A86^2*0.01*greek!$B$1</f>
         <v>0</v>
       </c>
@@ -7621,7 +7621,7 @@
         <f>A87*Sheet1!A87*greek!$B$1</f>
         <v>17980066.445182726</v>
       </c>
-      <c r="G87" s="1">
+      <c r="G87" s="2">
         <f>B87*Sheet1!A87^2*0.01*greek!$B$1</f>
         <v>0</v>
       </c>
@@ -7661,7 +7661,7 @@
         <f>A88*Sheet1!A88*greek!$B$1</f>
         <v>17720930.232558142</v>
       </c>
-      <c r="G88" s="1">
+      <c r="G88" s="2">
         <f>B88*Sheet1!A88^2*0.01*greek!$B$1</f>
         <v>0</v>
       </c>
@@ -7701,7 +7701,7 @@
         <f>A89*Sheet1!A89*greek!$B$1</f>
         <v>18079734.219269104</v>
       </c>
-      <c r="G89" s="1">
+      <c r="G89" s="2">
         <f>B89*Sheet1!A89^2*0.01*greek!$B$1</f>
         <v>0</v>
       </c>
@@ -7741,7 +7741,7 @@
         <f>A90*Sheet1!A90*greek!$B$1</f>
         <v>17960132.890365452</v>
       </c>
-      <c r="G90" s="1">
+      <c r="G90" s="2">
         <f>B90*Sheet1!A90^2*0.01*greek!$B$1</f>
         <v>0</v>
       </c>
@@ -7781,7 +7781,7 @@
         <f>A91*Sheet1!A91*greek!$B$1</f>
         <v>17880398.671096347</v>
       </c>
-      <c r="G91" s="1">
+      <c r="G91" s="2">
         <f>B91*Sheet1!A91^2*0.01*greek!$B$1</f>
         <v>0</v>
       </c>
@@ -7821,7 +7821,7 @@
         <f>A92*Sheet1!A92*greek!$B$1</f>
         <v>16983388.704318937</v>
       </c>
-      <c r="G92" s="1">
+      <c r="G92" s="2">
         <f>B92*Sheet1!A92^2*0.01*greek!$B$1</f>
         <v>0</v>
       </c>
@@ -7861,7 +7861,7 @@
         <f>A93*Sheet1!A93*greek!$B$1</f>
         <v>16445182.724252494</v>
       </c>
-      <c r="G93" s="1">
+      <c r="G93" s="2">
         <f>B93*Sheet1!A93^2*0.01*greek!$B$1</f>
         <v>0</v>
       </c>
@@ -7901,7 +7901,7 @@
         <f>A94*Sheet1!A94*greek!$B$1</f>
         <v>17162790.69767442</v>
       </c>
-      <c r="G94" s="1">
+      <c r="G94" s="2">
         <f>B94*Sheet1!A94^2*0.01*greek!$B$1</f>
         <v>0</v>
       </c>
